--- a/Extra Work/Test Scenario.xlsx
+++ b/Extra Work/Test Scenario.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="remote" sheetId="1" r:id="rId1"/>
+    <sheet name="chair" sheetId="2" r:id="rId2"/>
+    <sheet name="pen" sheetId="3" r:id="rId3"/>
+    <sheet name="door" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>SR No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>Test Scenario (positive)</t>
   </si>
@@ -65,26 +65,209 @@
     <t>verify the remote it ts working on all tv</t>
   </si>
   <si>
-    <t>verify the remote test e.g. durability,waterproof</t>
-  </si>
-  <si>
     <t>verify the remote that is working properly</t>
   </si>
   <si>
     <t>verify the remote that is working properly or not</t>
   </si>
   <si>
-    <t xml:space="preserve">verify the type of remote it is </t>
-  </si>
-  <si>
     <t>verify the remote color it is show properly</t>
+  </si>
+  <si>
+    <t>verify the type of remote it is or not e.g.ac,tv,fan etc</t>
+  </si>
+  <si>
+    <t>verify the remote button it is clearly visible or not</t>
+  </si>
+  <si>
+    <t>verify the remote bulid quality it is good or not</t>
+  </si>
+  <si>
+    <t>verify the remote sensor it is working properly or not</t>
+  </si>
+  <si>
+    <t>verify the remote color it is show properly or not</t>
+  </si>
+  <si>
+    <t>verify the remote battery it is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the remote battery size all is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the remote led sensor it is working properly or not</t>
+  </si>
+  <si>
+    <t>verify the remote it ts working on all tv or not</t>
+  </si>
+  <si>
+    <t>verify the size of the remote it is all size avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the connection of the remote it is connected or not</t>
+  </si>
+  <si>
+    <t>verify the all remote test e.g. durability,waterproof</t>
+  </si>
+  <si>
+    <t>verify the all remote test it is pass or not</t>
+  </si>
+  <si>
+    <t>verify the remote material</t>
+  </si>
+  <si>
+    <t>verify the remote material it is good or not</t>
+  </si>
+  <si>
+    <t>verify the all remote parts it is properly working</t>
+  </si>
+  <si>
+    <t>verify the all remote parts it is properly working or not</t>
+  </si>
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>Test Scenario (negative)</t>
+  </si>
+  <si>
+    <t>verify the build quality of chair</t>
+  </si>
+  <si>
+    <t>verify the chair color it is cleary visible</t>
+  </si>
+  <si>
+    <t>verify the all parts of chair it is working or avaliable e.g. armrest,backrest,headrest,base,caster</t>
+  </si>
+  <si>
+    <t>verify all type of chair it is avaliable e.g office chair,dining chair</t>
+  </si>
+  <si>
+    <t>verify the all test of chair e.g.durability,waterproof,dustproof</t>
+  </si>
+  <si>
+    <t>verify the weight of the chair e.g. light,heavy</t>
+  </si>
+  <si>
+    <t>verify the size of the chair e.g. small,large</t>
+  </si>
+  <si>
+    <t>verify the chair when I sit on the chair it is comfortable</t>
+  </si>
+  <si>
+    <t>verify the size of the chair it is all size avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the build quality of chair it is good or not</t>
+  </si>
+  <si>
+    <t>verify the material of the chair e.g. wooden,steel,iron,plastic</t>
+  </si>
+  <si>
+    <t>verify the material of the chair it is all avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the chair color it is it is all avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the all parts of chair it is working or avaliable or not</t>
+  </si>
+  <si>
+    <t>verify all type of chair it is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the design of chair it is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify design of chair e.g. round,square</t>
+  </si>
+  <si>
+    <t>verify the all test of chair it is all pass or not</t>
+  </si>
+  <si>
+    <t>verify the weight of the chair it is light,heavy or not</t>
+  </si>
+  <si>
+    <t>verify the chair when I sit on the chair it is comfortable or not</t>
+  </si>
+  <si>
+    <t>verify the all type of pen it is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the all type of pen. e.g.ink,gel,fountain,marker</t>
+  </si>
+  <si>
+    <t>verify the all size of pen. e.g. small,medium</t>
+  </si>
+  <si>
+    <t>verify the outerbody material of the pen. e.g plastic,metalic</t>
+  </si>
+  <si>
+    <t>Verify if the pen is with a cap </t>
+  </si>
+  <si>
+    <t>verify the color of the ink on the pen</t>
+  </si>
+  <si>
+    <t>Verify the user is able to write clearly over different types of papers.</t>
+  </si>
+  <si>
+    <t>verify the brand name or logo it is cleary visible</t>
+  </si>
+  <si>
+    <t>verify the length and the diameter of the pen are as per the specification</t>
+  </si>
+  <si>
+    <t>Verify the text written by the pen is erasable</t>
+  </si>
+  <si>
+    <t>Verify the text written by the pen is waterproof</t>
+  </si>
+  <si>
+    <t>Verify if the pen can support multiple refills</t>
+  </si>
+  <si>
+    <t>verify the all size of pen it is all avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the length and the diameter of the pen are as per the specification it is length avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the color of the ink on the pen it is color avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the outerbody material of the pen it is all avaliable or not</t>
+  </si>
+  <si>
+    <t>Verify the user is able to write clearly over different types of papers. it is user avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the color of the outer body of the pen. It is as per the specifications.</t>
+  </si>
+  <si>
+    <t>verify the color of the outer body of the pen. It is as per the specifications or not</t>
+  </si>
+  <si>
+    <t>verify the brand name or logo it is cleary visible or not</t>
+  </si>
+  <si>
+    <t>Verify if the pen is with a cap or not</t>
+  </si>
+  <si>
+    <t>Verify the text written by the pen is erasable or not</t>
+  </si>
+  <si>
+    <t>Verify the text written by the pen is waterproof or not</t>
+  </si>
+  <si>
+    <t>Verify if the pen can support multiple refills or not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +292,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF282829"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -164,6 +354,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:G20"/>
+  <dimension ref="D4:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,15 +659,15 @@
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="4:7" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -473,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -485,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -497,9 +700,11 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="4:7" ht="37.5" x14ac:dyDescent="0.3">
@@ -507,9 +712,11 @@
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="4:7" ht="56.25" x14ac:dyDescent="0.3">
@@ -517,9 +724,11 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="4:7" ht="75" x14ac:dyDescent="0.3">
@@ -527,9 +736,11 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="4:7" ht="56.25" x14ac:dyDescent="0.3">
@@ -537,9 +748,11 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="4:7" ht="56.25" x14ac:dyDescent="0.3">
@@ -547,9 +760,11 @@
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="4:7" ht="56.25" x14ac:dyDescent="0.3">
@@ -557,9 +772,11 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="4:7" ht="56.25" x14ac:dyDescent="0.3">
@@ -567,9 +784,11 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="4:7" ht="37.5" x14ac:dyDescent="0.3">
@@ -577,9 +796,11 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="4:7" ht="56.25" x14ac:dyDescent="0.3">
@@ -587,9 +808,11 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="4:7" ht="56.25" x14ac:dyDescent="0.3">
@@ -597,31 +820,509 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+    <row r="18" spans="4:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="4:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D12" s="8">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D14" s="8">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D15" s="8">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Extra Work/Test Scenario.xlsx
+++ b/Extra Work/Test Scenario.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="remote" sheetId="1" r:id="rId1"/>
     <sheet name="chair" sheetId="2" r:id="rId2"/>
     <sheet name="pen" sheetId="3" r:id="rId3"/>
     <sheet name="door" sheetId="4" r:id="rId4"/>
+    <sheet name="fan" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
   <si>
     <t>Test Scenario (positive)</t>
   </si>
@@ -143,9 +144,6 @@
     <t>verify all type of chair it is avaliable e.g office chair,dining chair</t>
   </si>
   <si>
-    <t>verify the all test of chair e.g.durability,waterproof,dustproof</t>
-  </si>
-  <si>
     <t>verify the weight of the chair e.g. light,heavy</t>
   </si>
   <si>
@@ -182,9 +180,6 @@
     <t>verify design of chair e.g. round,square</t>
   </si>
   <si>
-    <t>verify the all test of chair it is all pass or not</t>
-  </si>
-  <si>
     <t>verify the weight of the chair it is light,heavy or not</t>
   </si>
   <si>
@@ -194,9 +189,6 @@
     <t>verify the all type of pen it is avaliable or not</t>
   </si>
   <si>
-    <t>verify the all type of pen. e.g.ink,gel,fountain,marker</t>
-  </si>
-  <si>
     <t>verify the all size of pen. e.g. small,medium</t>
   </si>
   <si>
@@ -261,6 +253,159 @@
   </si>
   <si>
     <t>Verify if the pen can support multiple refills or not</t>
+  </si>
+  <si>
+    <t>verify the all type of the door e.g.wooden,steel,iron,plastic</t>
+  </si>
+  <si>
+    <t>verify the all type of the pen. e.g.ink,gel,fountain,marker</t>
+  </si>
+  <si>
+    <t>verify the length width and height of the door are as per the specification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the all type of color of the door are avaliable </t>
+  </si>
+  <si>
+    <t>verify the door is having stopper and locks</t>
+  </si>
+  <si>
+    <t>verify if the door closes automatically</t>
+  </si>
+  <si>
+    <t>verify the door opens inwards or outwards</t>
+  </si>
+  <si>
+    <t>verify the all type of the door are avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the size of the door are as per the specification</t>
+  </si>
+  <si>
+    <t>verify the all size of the door are as per the specification or not</t>
+  </si>
+  <si>
+    <t>verify the length width and height of the door are as per the specification or not</t>
+  </si>
+  <si>
+    <t>verify the all type of color of the door are avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the door brand name or logo clearly visible</t>
+  </si>
+  <si>
+    <t>verify the door brand name or logo clearly visible or not</t>
+  </si>
+  <si>
+    <t>verify the type of the door is single or folded door</t>
+  </si>
+  <si>
+    <t>verify the type of the door is single or folded door or not</t>
+  </si>
+  <si>
+    <t>verify the type of the door is sliding door or rotating door</t>
+  </si>
+  <si>
+    <t>verify the type of the door is sliding door or rotating door or not</t>
+  </si>
+  <si>
+    <t>verify the door is having stopper and locks or not</t>
+  </si>
+  <si>
+    <t>verify the door closes automatically or not</t>
+  </si>
+  <si>
+    <t>verify the door opens inwards or outwards or not</t>
+  </si>
+  <si>
+    <t>verify the design of the door e.g. round,square</t>
+  </si>
+  <si>
+    <t>verify the all type of design of the door is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the weight of the door e.g. light,heavy</t>
+  </si>
+  <si>
+    <t>verify the weight of the door it is light,heavy or not</t>
+  </si>
+  <si>
+    <t>verify the build quality of the door</t>
+  </si>
+  <si>
+    <t>verify the build quality of the door it is good or not</t>
+  </si>
+  <si>
+    <t>verify the all test of the chair e.g.durability,waterproof,dustproof</t>
+  </si>
+  <si>
+    <t>verify the all test of the chair it is all pass or not</t>
+  </si>
+  <si>
+    <t>verify the fan that working properly</t>
+  </si>
+  <si>
+    <t>verify the fan button is clearly visible e.g.wall,table</t>
+  </si>
+  <si>
+    <t>verify the size of the fan e.g. medium,large</t>
+  </si>
+  <si>
+    <t>verify the all type of test of the fan e.g.durablility,sockproof</t>
+  </si>
+  <si>
+    <t>verify the all type of the fan color it is avaliable</t>
+  </si>
+  <si>
+    <t>verify the quality material of the fan</t>
+  </si>
+  <si>
+    <t>verify the type of the fan e.g. ceiling,wall,table</t>
+  </si>
+  <si>
+    <t>verify the on-off functionality of fan</t>
+  </si>
+  <si>
+    <t>verify the fan works normally throws wind on right direction</t>
+  </si>
+  <si>
+    <t>verify the build quality of the fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the build quality of the fan it is good or not </t>
+  </si>
+  <si>
+    <t>verify the fan that working properly or not</t>
+  </si>
+  <si>
+    <t>verify the type of the fan it is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the fan button it is clearly visible or not</t>
+  </si>
+  <si>
+    <t>verify the size of the fan it is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the all type of test of the fan it is pass successful or not</t>
+  </si>
+  <si>
+    <t>verify the all type of the fan color it is avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the quality material of the fan it is good or not</t>
+  </si>
+  <si>
+    <t>verify the on-off functionality of fan it is working properly or not</t>
+  </si>
+  <si>
+    <t>verify the fan works normally throws wind on right direction or not</t>
+  </si>
+  <si>
+    <t>verify the number of blades on the fan it is all avaliable or not</t>
+  </si>
+  <si>
+    <t>verify the number of blades on the fan e.g. 3,4 etc</t>
   </si>
 </sst>
 </file>
@@ -649,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -902,7 +1047,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
@@ -910,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -924,7 +1069,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="93.75" x14ac:dyDescent="0.3">
@@ -935,7 +1080,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
@@ -946,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -954,21 +1099,21 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="75" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
@@ -976,10 +1121,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
@@ -987,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1038,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
@@ -1075,10 +1220,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
@@ -1086,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
@@ -1097,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
@@ -1108,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
@@ -1119,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -1130,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
@@ -1141,10 +1286,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
@@ -1152,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
@@ -1163,10 +1308,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
@@ -1174,10 +1319,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
@@ -1185,10 +1330,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -1220,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,60 +1387,315 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+    <row r="4" spans="4:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D12" s="8">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D14" s="8">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D15" s="8">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D12" s="8">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D14" s="8">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
@@ -1322,7 +1722,13 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
+    <row r="20" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Extra Work/Test Scenario.xlsx
+++ b/Extra Work/Test Scenario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="remote" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="pen" sheetId="3" r:id="rId3"/>
     <sheet name="door" sheetId="4" r:id="rId4"/>
     <sheet name="fan" sheetId="5" r:id="rId5"/>
+    <sheet name=" whatsapp camera" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="138">
   <si>
     <t>Test Scenario (positive)</t>
   </si>
@@ -406,6 +407,42 @@
   </si>
   <si>
     <t>verify the number of blades on the fan e.g. 3,4 etc</t>
+  </si>
+  <si>
+    <t>verify to download and install the whatsapp application</t>
+  </si>
+  <si>
+    <t>verify the configuration details in the whatsapp</t>
+  </si>
+  <si>
+    <t>verify to click on the whatsapp camera button</t>
+  </si>
+  <si>
+    <t>verify to click on the gallery option</t>
+  </si>
+  <si>
+    <t>verify to select multiple images in recent option</t>
+  </si>
+  <si>
+    <t>verify to select particular folder inside the gallery</t>
+  </si>
+  <si>
+    <t>verify to select image/video in multiple selection</t>
+  </si>
+  <si>
+    <t>verify to click on back option</t>
+  </si>
+  <si>
+    <t>verify to click the photo from the camera</t>
+  </si>
+  <si>
+    <t>verify if the camera click the photo but it is not storing inside the phone memory,it will store only when has been send.</t>
+  </si>
+  <si>
+    <t>verify if the photo is clicked,the bottom message shows an add to caption…why…is required</t>
+  </si>
+  <si>
+    <t>verify if the flashlight only on when we click a photo or video otherwise its not</t>
   </si>
 </sst>
 </file>
@@ -484,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -510,6 +547,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1554,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,4 +1774,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="11">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="11">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="11">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="11">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="11">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="11">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="11">
+        <v>13</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="11">
+        <v>14</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="11">
+        <v>15</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="11">
+        <v>16</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="11">
+        <v>17</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>